--- a/inputTestData/TestData.xlsx
+++ b/inputTestData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gnikolic\IdeaProjects\ModularFramework-10172024\inputTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C815DF28-FB75-4C5B-86EB-39DC2CCE0010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C66524-40DE-4CDA-A4C9-AD63DD7EB7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7300" yWindow="1990" windowWidth="9840" windowHeight="10450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
   <si>
     <t>saurabh.d2106@gmail.com</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Welcome, Saurabh</t>
+  </si>
+  <si>
+    <t>Welcome,Goran</t>
   </si>
 </sst>
 </file>
@@ -411,13 +414,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="35.6328125" customWidth="1"/>
+    <col min="2" max="2" width="29.08984375" customWidth="1"/>
+    <col min="3" max="3" width="34.453125" customWidth="1"/>
+    <col min="4" max="4" width="40.90625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -439,6 +448,17 @@
       </c>
       <c r="C2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -447,6 +467,8 @@
     <hyperlink ref="B1" r:id="rId2" xr:uid="{4814048D-4B50-469D-871A-55084B26D93E}"/>
     <hyperlink ref="A2" r:id="rId3" xr:uid="{D06C8F93-1E0C-41EB-BB54-0D1E501B76EA}"/>
     <hyperlink ref="B2" r:id="rId4" xr:uid="{600C119A-EC7A-499F-B4D5-F0ECFF8E965E}"/>
+    <hyperlink ref="A3" r:id="rId5" xr:uid="{9F378493-2AEB-4C38-9EA3-B8000210C905}"/>
+    <hyperlink ref="B3" r:id="rId6" xr:uid="{F51F5069-C723-4A8C-A165-4691041976FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inputTestData/TestData.xlsx
+++ b/inputTestData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gnikolic\IdeaProjects\ModularFramework-10172024\inputTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C66524-40DE-4CDA-A4C9-AD63DD7EB7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4509ED-AD99-42B6-AE8E-92F18B00A143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7300" yWindow="1990" windowWidth="9840" windowHeight="10450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
   <si>
     <t>saurabh.d2106@gmail.com</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>Welcome, Saurabh</t>
-  </si>
-  <si>
-    <t>Welcome,Goran</t>
   </si>
 </sst>
 </file>
@@ -458,7 +455,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
